--- a/apartments-list.xlsx
+++ b/apartments-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrsbelkins/Desktop/kursa-darbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A985EF12-1183-0746-AD54-97BC2C01C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA46A40-0BA7-764B-B9C8-BFA1041A4C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Saite</t>
+  </si>
   <si>
     <t>Sludinājums</t>
   </si>
@@ -412,20 +415,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="A2:H26"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.5" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,22 +453,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
